--- a/resources/psst_input.xlsx
+++ b/resources/psst_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>number</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>B33</t>
+  </si>
+  <si>
+    <t>咱先建个算例，标黄部分暂时是需要用户输入的</t>
   </si>
 </sst>
 </file>
@@ -160,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -174,14 +177,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -197,8 +193,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,8 +222,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,55 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,7 +260,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -325,25 +328,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,19 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,31 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,25 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,67 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,15 +519,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,17 +537,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,20 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +611,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -631,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,137 +646,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -781,6 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1109,7 +1113,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1550,20 +1554,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
-  <cols>
-    <col min="3" max="4" width="12.6666666666667"/>
-    <col min="6" max="7" width="12.6666666666667"/>
-    <col min="9" max="9" width="12.6666666666667"/>
-    <col min="11" max="11" width="12.6666666666667"/>
-    <col min="13" max="13" width="12.6666666666667"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1"/>
@@ -3038,6 +3035,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
